--- a/data/Grain_Counting/gc_63_11.xlsx
+++ b/data/Grain_Counting/gc_63_11.xlsx
@@ -8,16 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149766CE-F364-7A47-BFE1-1DF6A72CBBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA0084B-ECE9-5646-BF8A-92C057D854F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rep1" sheetId="1" r:id="rId1"/>
     <sheet name="rep2" sheetId="12" r:id="rId2"/>
     <sheet name="rep3" sheetId="13" r:id="rId3"/>
     <sheet name="rep4" sheetId="16" r:id="rId4"/>
-    <sheet name="5" sheetId="17" r:id="rId5"/>
+    <sheet name="rep5" sheetId="17" r:id="rId5"/>
+    <sheet name="rep6" sheetId="18" r:id="rId6"/>
+    <sheet name="rep7" sheetId="19" r:id="rId7"/>
+    <sheet name="rep8" sheetId="20" r:id="rId8"/>
+    <sheet name="rep9" sheetId="21" r:id="rId9"/>
+    <sheet name="rep10" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="21">
   <si>
     <t>var</t>
   </si>
@@ -101,6 +106,10 @@
     <t>1,3,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -186,13 +195,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,7 +285,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -235,10 +345,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1013,6 +1119,468 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081B6ADC-39E1-BD49-B96F-BFB5A1C8EF4E}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15">
+        <v>63</v>
+      </c>
+      <c r="C4" s="15">
+        <v>10</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="22">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15">
+        <v>63</v>
+      </c>
+      <c r="C5" s="15">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15">
+        <v>63</v>
+      </c>
+      <c r="C6" s="15">
+        <v>10</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
+        <v>63</v>
+      </c>
+      <c r="C7" s="15">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15">
+        <v>63</v>
+      </c>
+      <c r="C8" s="15">
+        <v>10</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15">
+        <v>63</v>
+      </c>
+      <c r="C9" s="15">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20">
+        <v>5</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="15">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15">
+        <v>10</v>
+      </c>
+      <c r="D12" s="16">
+        <v>11</v>
+      </c>
+      <c r="E12" s="20">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="20">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15">
+        <v>10</v>
+      </c>
+      <c r="D14" s="16">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <v>63</v>
+      </c>
+      <c r="C15" s="15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="20">
+        <v>5</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15">
+        <v>10</v>
+      </c>
+      <c r="D16" s="16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>2</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15">
+        <v>63</v>
+      </c>
+      <c r="C17" s="15">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="20">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>63</v>
+      </c>
+      <c r="C18" s="15">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16">
+        <v>17</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>2</v>
+      </c>
+      <c r="H18" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>63</v>
+      </c>
+      <c r="C19" s="15">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187A3270-6857-014B-AA65-92ADA07B31A0}">
   <dimension ref="A1:H20"/>
@@ -2506,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90353D57-4516-5547-ADB2-A84BA0915D2D}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2570,10 +3138,10 @@
       <c r="C3" s="4">
         <v>5</v>
       </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
         <v>5</v>
       </c>
       <c r="F3" s="6"/>
@@ -2594,10 +3162,10 @@
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
         <v>5</v>
       </c>
       <c r="F4" s="6"/>
@@ -2618,10 +3186,10 @@
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="8">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="6"/>
@@ -2642,10 +3210,10 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
         <v>5</v>
       </c>
       <c r="F6" s="6">
@@ -2666,10 +3234,10 @@
       <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="8">
-        <v>6</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="6"/>
@@ -2690,10 +3258,10 @@
       <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <v>6</v>
       </c>
       <c r="F8" s="6">
@@ -2714,10 +3282,10 @@
       <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
         <v>6</v>
       </c>
       <c r="F9" s="6"/>
@@ -2738,10 +3306,10 @@
       <c r="C10" s="4">
         <v>5</v>
       </c>
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
         <v>6</v>
       </c>
       <c r="F10" s="6"/>
@@ -2762,10 +3330,10 @@
       <c r="C11" s="4">
         <v>5</v>
       </c>
-      <c r="D11" s="8">
-        <v>10</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
         <v>6</v>
       </c>
       <c r="F11" s="6"/>
@@ -2786,10 +3354,10 @@
       <c r="C12" s="4">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="2">
         <v>6</v>
       </c>
       <c r="F12" s="6"/>
@@ -2810,10 +3378,10 @@
       <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="2">
         <v>6</v>
       </c>
       <c r="F13" s="6">
@@ -2836,10 +3404,10 @@
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>13</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="2">
         <v>6</v>
       </c>
       <c r="F14" s="6"/>
@@ -2860,10 +3428,10 @@
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
       <c r="F15" s="6"/>
@@ -2884,10 +3452,10 @@
       <c r="C16" s="4">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>15</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="2">
         <v>6</v>
       </c>
       <c r="F16" s="6">
@@ -2910,10 +3478,10 @@
       <c r="C17" s="4">
         <v>5</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="2">
         <v>16</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="2">
         <v>5</v>
       </c>
       <c r="F17" s="6">
@@ -2934,10 +3502,10 @@
       <c r="C18" s="4">
         <v>5</v>
       </c>
-      <c r="D18" s="7">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8">
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
         <v>5</v>
       </c>
       <c r="F18" s="6"/>
@@ -2958,10 +3526,10 @@
       <c r="C19" s="4">
         <v>5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="2">
         <v>5</v>
       </c>
       <c r="F19" s="6"/>
@@ -2980,10 +3548,10 @@
       <c r="C20" s="4">
         <v>5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>19</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="2">
         <v>4</v>
       </c>
       <c r="F20" s="6"/>
@@ -3002,10 +3570,10 @@
       <c r="C21" s="4">
         <v>5</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="2">
         <v>3</v>
       </c>
       <c r="F21" s="6"/>
@@ -3013,6 +3581,1965 @@
         <v>2</v>
       </c>
       <c r="H21" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3B7CAE-8D00-3C4A-97F7-FD6AB972DC85}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6">
+        <v>3</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>3</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="6">
+        <v>3</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EA895B-1ABA-5646-BDF6-BF86FE959E57}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>10</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6">
+        <v>2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7</v>
+      </c>
+      <c r="D13" s="9">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6">
+        <v>3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7</v>
+      </c>
+      <c r="D15" s="9">
+        <v>14</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7</v>
+      </c>
+      <c r="D19" s="9">
+        <v>18</v>
+      </c>
+      <c r="E19" s="7">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7</v>
+      </c>
+      <c r="D20" s="7">
+        <v>19</v>
+      </c>
+      <c r="E20" s="7">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="4">
+        <v>63</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7</v>
+      </c>
+      <c r="D21" s="9">
+        <v>20</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4EEC3EC-9B92-0D4C-88FE-4032ED4CE892}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4">
+        <v>63</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>63</v>
+      </c>
+      <c r="C6" s="4">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4">
+        <v>63</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4">
+        <v>63</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>63</v>
+      </c>
+      <c r="C9" s="4">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4">
+        <v>63</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>63</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>63</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="10">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>63</v>
+      </c>
+      <c r="C15" s="4">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>63</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8</v>
+      </c>
+      <c r="D16" s="10">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>63</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="10">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4">
+        <v>63</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="10">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214EBD21-3DED-404D-93CC-3CBFDB2B0676}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15">
+        <v>63</v>
+      </c>
+      <c r="C2" s="15">
+        <v>9</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="15">
+        <v>63</v>
+      </c>
+      <c r="C3" s="15">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="20">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15">
+        <v>63</v>
+      </c>
+      <c r="C4" s="15">
+        <v>9</v>
+      </c>
+      <c r="D4" s="16">
+        <v>3</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="15">
+        <v>63</v>
+      </c>
+      <c r="C5" s="15">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" s="20">
+        <v>4</v>
+      </c>
+      <c r="F5" s="17">
+        <v>2</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15">
+        <v>63</v>
+      </c>
+      <c r="C6" s="15">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5</v>
+      </c>
+      <c r="E6" s="20">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
+        <v>63</v>
+      </c>
+      <c r="C7" s="15">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="20">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15">
+        <v>63</v>
+      </c>
+      <c r="C8" s="15">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16">
+        <v>7</v>
+      </c>
+      <c r="E8" s="20">
+        <v>5</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="15">
+        <v>63</v>
+      </c>
+      <c r="C9" s="15">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20">
+        <v>5</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="15">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9</v>
+      </c>
+      <c r="D10" s="16">
+        <v>9</v>
+      </c>
+      <c r="E10" s="20">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="15">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20">
+        <v>5</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="15">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16">
+        <v>11</v>
+      </c>
+      <c r="E12" s="20">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="15">
+        <v>63</v>
+      </c>
+      <c r="C13" s="15">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" s="20">
+        <v>5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="15">
+        <v>63</v>
+      </c>
+      <c r="C14" s="15">
+        <v>9</v>
+      </c>
+      <c r="D14" s="16">
+        <v>13</v>
+      </c>
+      <c r="E14" s="20">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="15">
+        <v>63</v>
+      </c>
+      <c r="C15" s="15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="20">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>2</v>
+      </c>
+      <c r="H15" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="15">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15">
+        <v>9</v>
+      </c>
+      <c r="D16" s="16">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20">
+        <v>4</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="15">
+        <v>63</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" s="20">
+        <v>3</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="17">
+        <v>2</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15">
+        <v>63</v>
+      </c>
+      <c r="C18" s="15">
+        <v>9</v>
+      </c>
+      <c r="D18" s="16">
+        <v>17</v>
+      </c>
+      <c r="E18" s="20">
+        <v>4</v>
+      </c>
+      <c r="F18" s="17">
+        <v>2</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15">
+        <v>63</v>
+      </c>
+      <c r="C19" s="15">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20">
+        <v>3</v>
+      </c>
+      <c r="F19" s="17">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17">
+        <v>2</v>
+      </c>
+      <c r="H19" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/Grain_Counting/gc_63_11.xlsx
+++ b/data/Grain_Counting/gc_63_11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/han-wenhsu/Library/Mobile Documents/com~apple~CloudDocs/HU Dokumente/6. Semester/Studienprojekt/Ear_development_BSC_project_hwh/data/Grain_Counting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA0084B-ECE9-5646-BF8A-92C057D854F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916FA97-FEB8-CE46-B18D-6AD2D63ACB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="22">
   <si>
     <t>var</t>
   </si>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -260,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,16 +286,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -315,19 +310,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1133,447 +1122,447 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15">
-        <v>63</v>
-      </c>
-      <c r="C2" s="15">
-        <v>10</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12">
+        <v>63</v>
+      </c>
+      <c r="C2" s="12">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="15">
-        <v>63</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="12">
+        <v>63</v>
+      </c>
+      <c r="C3" s="12">
         <v>10</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="15">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="15">
-        <v>63</v>
-      </c>
-      <c r="C4" s="15">
-        <v>10</v>
-      </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" s="22">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="17"/>
+      <c r="A4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="15">
-        <v>63</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="12">
+        <v>63</v>
+      </c>
+      <c r="C5" s="12">
         <v>10</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="17"/>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15">
-        <v>63</v>
-      </c>
-      <c r="C6" s="15">
-        <v>10</v>
-      </c>
-      <c r="D6" s="16">
-        <v>5</v>
-      </c>
-      <c r="E6" s="20">
-        <v>4</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="17"/>
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="12">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="15">
-        <v>63</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="A7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12">
         <v>10</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="20">
-        <v>5</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15">
-        <v>10</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="12">
+        <v>63</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13">
         <v>7</v>
       </c>
-      <c r="E8" s="20">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17">
-        <v>2</v>
-      </c>
-      <c r="G8" s="17" t="s">
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15">
-        <v>63</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="12">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12">
         <v>10</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="20">
-        <v>5</v>
-      </c>
-      <c r="F9" s="17">
-        <v>2</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3</v>
-      </c>
-      <c r="H9" s="17"/>
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="15">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15">
-        <v>10</v>
-      </c>
-      <c r="D10" s="16">
-        <v>9</v>
-      </c>
-      <c r="E10" s="20">
-        <v>5</v>
-      </c>
-      <c r="F10" s="17">
-        <v>3</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17" t="s">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>3</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="15">
-        <v>63</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="A11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="12">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12">
         <v>10</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="20">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17">
-        <v>1</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="17"/>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15">
-        <v>10</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="12">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13">
         <v>11</v>
       </c>
-      <c r="E12" s="20">
-        <v>5</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="15">
-        <v>63</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="A13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="12">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12">
         <v>10</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
-        <v>2</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15">
-        <v>63</v>
-      </c>
-      <c r="C14" s="15">
-        <v>10</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="A14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="12">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="17"/>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="15">
-        <v>63</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="A15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="12">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12">
         <v>10</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
-        <v>5</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15">
-        <v>63</v>
-      </c>
-      <c r="C16" s="15">
-        <v>10</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="12">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
         <v>15</v>
       </c>
-      <c r="E16" s="20">
-        <v>4</v>
-      </c>
-      <c r="F16" s="17">
-        <v>2</v>
-      </c>
-      <c r="G16" s="17">
-        <v>3</v>
-      </c>
-      <c r="H16" s="17"/>
+      <c r="E16" s="15">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="15">
-        <v>63</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12">
         <v>10</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="20">
-        <v>4</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="E17" s="15">
+        <v>4</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2</v>
+      </c>
+      <c r="H17" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15">
-        <v>63</v>
-      </c>
-      <c r="C18" s="15">
-        <v>10</v>
-      </c>
-      <c r="D18" s="16">
-        <v>17</v>
-      </c>
-      <c r="E18" s="20">
-        <v>4</v>
-      </c>
-      <c r="F18" s="17">
-        <v>1</v>
-      </c>
-      <c r="G18" s="17">
-        <v>2</v>
-      </c>
-      <c r="H18" s="17">
+      <c r="A18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12">
+        <v>63</v>
+      </c>
+      <c r="C18" s="12">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15">
-        <v>63</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="A19" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>63</v>
+      </c>
+      <c r="C19" s="12">
         <v>10</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="20">
-        <v>4</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="17"/>
+      <c r="E19" s="15">
+        <v>4</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4106,10 +4095,10 @@
       <c r="C2" s="4">
         <v>7</v>
       </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="6"/>
@@ -4126,10 +4115,10 @@
       <c r="C3" s="4">
         <v>7</v>
       </c>
-      <c r="D3" s="9">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5">
         <v>3</v>
       </c>
       <c r="F3" s="6"/>
@@ -4148,10 +4137,10 @@
       <c r="C4" s="4">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
-        <v>3</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
         <v>4</v>
       </c>
       <c r="F4" s="6">
@@ -4174,10 +4163,10 @@
       <c r="C5" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
         <v>5</v>
       </c>
       <c r="F5" s="6"/>
@@ -4198,10 +4187,10 @@
       <c r="C6" s="4">
         <v>7</v>
       </c>
-      <c r="D6" s="7">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
         <v>5</v>
       </c>
       <c r="F6" s="6">
@@ -4224,10 +4213,10 @@
       <c r="C7" s="4">
         <v>7</v>
       </c>
-      <c r="D7" s="9">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
         <v>5</v>
       </c>
       <c r="F7" s="6">
@@ -4250,10 +4239,10 @@
       <c r="C8" s="4">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>7</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>5</v>
       </c>
       <c r="F8" s="6"/>
@@ -4272,10 +4261,10 @@
       <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5">
         <v>5</v>
       </c>
       <c r="F9" s="6"/>
@@ -4296,10 +4285,10 @@
       <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>9</v>
-      </c>
-      <c r="E10" s="7">
+      <c r="D10" s="5">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
         <v>5</v>
       </c>
       <c r="F10" s="6">
@@ -4322,10 +4311,10 @@
       <c r="C11" s="4">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7">
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
         <v>5</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -4348,10 +4337,10 @@
       <c r="C12" s="4">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>11</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>5</v>
       </c>
       <c r="F12" s="6">
@@ -4374,10 +4363,10 @@
       <c r="C13" s="4">
         <v>7</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="2">
         <v>12</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>5</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4400,10 +4389,10 @@
       <c r="C14" s="4">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>13</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>5</v>
       </c>
       <c r="F14" s="6"/>
@@ -4422,10 +4411,10 @@
       <c r="C15" s="4">
         <v>7</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="2">
         <v>14</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>5</v>
       </c>
       <c r="F15" s="6">
@@ -4448,10 +4437,10 @@
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>15</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>5</v>
       </c>
       <c r="F16" s="6">
@@ -4472,10 +4461,10 @@
       <c r="C17" s="4">
         <v>7</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="2">
         <v>16</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>5</v>
       </c>
       <c r="F17" s="6"/>
@@ -4496,10 +4485,10 @@
       <c r="C18" s="4">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
-        <v>17</v>
-      </c>
-      <c r="E18" s="7">
+      <c r="D18" s="5">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5">
         <v>4</v>
       </c>
       <c r="F18" s="6"/>
@@ -4520,10 +4509,10 @@
       <c r="C19" s="4">
         <v>7</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>5</v>
       </c>
       <c r="F19" s="6"/>
@@ -4544,10 +4533,10 @@
       <c r="C20" s="4">
         <v>7</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>19</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>2</v>
       </c>
       <c r="F20" s="6"/>
@@ -4566,10 +4555,10 @@
       <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>4</v>
       </c>
       <c r="F21" s="6"/>
@@ -4630,10 +4619,10 @@
       <c r="C2" s="4">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
         <v>1</v>
       </c>
       <c r="F2" s="6"/>
@@ -4674,7 +4663,7 @@
       <c r="C4" s="4">
         <v>8</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="7">
         <v>3</v>
       </c>
       <c r="E4" s="2">
@@ -4722,7 +4711,7 @@
       <c r="C6" s="4">
         <v>8</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>5</v>
       </c>
       <c r="E6" s="2">
@@ -4770,7 +4759,7 @@
       <c r="C8" s="4">
         <v>8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>7</v>
       </c>
       <c r="E8" s="2">
@@ -4822,7 +4811,7 @@
       <c r="C10" s="4">
         <v>8</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>9</v>
       </c>
       <c r="E10" s="2">
@@ -4872,7 +4861,7 @@
       <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>11</v>
       </c>
       <c r="E12" s="2">
@@ -4922,7 +4911,7 @@
       <c r="C14" s="4">
         <v>8</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="7">
         <v>13</v>
       </c>
       <c r="E14" s="2">
@@ -4970,7 +4959,7 @@
       <c r="C16" s="4">
         <v>8</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>15</v>
       </c>
       <c r="E16" s="2">
@@ -5018,7 +5007,7 @@
       <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>17</v>
       </c>
       <c r="E18" s="2">
@@ -5062,7 +5051,7 @@
       <c r="C20" s="4">
         <v>8</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>19</v>
       </c>
       <c r="E20" s="2">
@@ -5085,461 +5074,458 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A2" sqref="A2:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="5" max="5" width="10.83203125" style="8"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="15">
-        <v>63</v>
-      </c>
-      <c r="C2" s="15">
-        <v>9</v>
-      </c>
-      <c r="D2" s="16">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>1</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="A2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12">
+        <v>63</v>
+      </c>
+      <c r="C2" s="12">
+        <v>9</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="15">
-        <v>63</v>
-      </c>
-      <c r="C3" s="15">
+      <c r="A3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="12">
+        <v>63</v>
+      </c>
+      <c r="C3" s="12">
         <v>9</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="20">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="15">
-        <v>63</v>
-      </c>
-      <c r="C4" s="15">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16">
-        <v>3</v>
-      </c>
-      <c r="E4" s="21">
-        <v>3</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17" t="s">
+      <c r="A4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12">
+        <v>63</v>
+      </c>
+      <c r="C4" s="12">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13">
+        <v>3</v>
+      </c>
+      <c r="E4" s="16">
+        <v>3</v>
+      </c>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="15">
-        <v>63</v>
-      </c>
-      <c r="C5" s="15">
+      <c r="A5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="12">
+        <v>63</v>
+      </c>
+      <c r="C5" s="12">
         <v>9</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
-        <v>4</v>
-      </c>
-      <c r="F5" s="17">
-        <v>2</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="14">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15">
-        <v>63</v>
-      </c>
-      <c r="C6" s="15">
-        <v>9</v>
-      </c>
-      <c r="D6" s="16">
-        <v>5</v>
-      </c>
-      <c r="E6" s="20">
-        <v>4</v>
-      </c>
-      <c r="F6" s="17">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="17"/>
+      <c r="A6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="12">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12">
+        <v>9</v>
+      </c>
+      <c r="D6" s="13">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="15">
-        <v>63</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="A7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="12">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12">
         <v>9</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="E7" s="20">
-        <v>5</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15">
-        <v>9</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="12">
+        <v>63</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" s="13">
         <v>7</v>
       </c>
-      <c r="E8" s="20">
-        <v>5</v>
-      </c>
-      <c r="F8" s="17">
-        <v>1</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="17"/>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="15">
-        <v>63</v>
-      </c>
-      <c r="C9" s="15">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="12">
+        <v>63</v>
+      </c>
+      <c r="C9" s="12">
         <v>9</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
-      <c r="E9" s="20">
-        <v>5</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17" t="s">
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="15">
-        <v>63</v>
-      </c>
-      <c r="C10" s="15">
-        <v>9</v>
-      </c>
-      <c r="D10" s="16">
-        <v>9</v>
-      </c>
-      <c r="E10" s="20">
-        <v>5</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="12">
+        <v>63</v>
+      </c>
+      <c r="C10" s="12">
+        <v>9</v>
+      </c>
+      <c r="D10" s="13">
+        <v>9</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="15">
-        <v>63</v>
-      </c>
-      <c r="C11" s="15">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12">
+        <v>63</v>
+      </c>
+      <c r="C11" s="12">
         <v>9</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" s="20">
-        <v>5</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15">
-        <v>63</v>
-      </c>
-      <c r="C12" s="15">
-        <v>9</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="12">
+        <v>63</v>
+      </c>
+      <c r="C12" s="12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="13">
         <v>11</v>
       </c>
-      <c r="E12" s="20">
-        <v>5</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="17"/>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="15">
-        <v>63</v>
-      </c>
-      <c r="C13" s="15">
+      <c r="A13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="12">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12">
         <v>9</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
-      <c r="E13" s="20">
-        <v>5</v>
-      </c>
-      <c r="F13" s="17">
-        <v>1</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="17"/>
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="15">
-        <v>63</v>
-      </c>
-      <c r="C14" s="15">
-        <v>9</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="A14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12">
+        <v>9</v>
+      </c>
+      <c r="D14" s="13">
         <v>13</v>
       </c>
-      <c r="E14" s="20">
-        <v>5</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="17">
-        <v>1</v>
-      </c>
-      <c r="H14" s="17"/>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="15">
-        <v>63</v>
-      </c>
-      <c r="C15" s="15">
+      <c r="A15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="12">
+        <v>63</v>
+      </c>
+      <c r="C15" s="12">
         <v>9</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
-      <c r="E15" s="20">
-        <v>4</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-      <c r="G15" s="17">
-        <v>2</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="E15" s="15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15">
-        <v>63</v>
-      </c>
-      <c r="C16" s="15">
-        <v>9</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="A16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="12">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12">
+        <v>9</v>
+      </c>
+      <c r="D16" s="13">
         <v>15</v>
       </c>
-      <c r="E16" s="20">
-        <v>4</v>
-      </c>
-      <c r="F16" s="17">
-        <v>1</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="17"/>
+      <c r="E16" s="15">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="15">
-        <v>63</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12">
+        <v>63</v>
+      </c>
+      <c r="C17" s="12">
         <v>9</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
-      <c r="E17" s="20">
-        <v>3</v>
-      </c>
-      <c r="F17" s="17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="17">
-        <v>2</v>
-      </c>
-      <c r="H17" s="17">
+      <c r="E17" s="15">
+        <v>3</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2</v>
+      </c>
+      <c r="H17" s="14">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15">
-        <v>63</v>
-      </c>
-      <c r="C18" s="15">
-        <v>9</v>
-      </c>
-      <c r="D18" s="16">
-        <v>17</v>
-      </c>
-      <c r="E18" s="20">
-        <v>4</v>
-      </c>
-      <c r="F18" s="17">
-        <v>2</v>
-      </c>
-      <c r="G18" s="17">
-        <v>1</v>
-      </c>
-      <c r="H18" s="17"/>
+      <c r="A18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="12">
+        <v>63</v>
+      </c>
+      <c r="C18" s="12">
+        <v>9</v>
+      </c>
+      <c r="D18" s="13">
+        <v>17</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="15">
-        <v>63</v>
-      </c>
-      <c r="C19" s="15">
+      <c r="A19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="12">
+        <v>63</v>
+      </c>
+      <c r="C19" s="12">
         <v>9</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
-      <c r="E19" s="20">
-        <v>3</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
-        <v>2</v>
-      </c>
-      <c r="H19" s="17"/>
+      <c r="E19" s="15">
+        <v>3</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
